--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1176608.946474489</v>
+        <v>1174048.762314624</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>370.1719220259905</v>
       </c>
       <c r="G2" t="n">
         <v>11.54770277295399</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>204.9361602519022</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>117.7332610155605</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>4.6146893208355</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,7 +880,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
@@ -914,7 +914,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>99.7979570227462</v>
+        <v>184.6543605014858</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>79.4165396514655</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>171.1971464172151</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>294.2683852755363</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>157.0430130197028</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>100.6867690249412</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>31.10811072719287</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1376,19 +1376,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238024</v>
+        <v>22.6077720323801</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114092</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
@@ -1430,10 +1430,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>231.5518151379998</v>
       </c>
       <c r="X11" t="n">
-        <v>85.39443307896525</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458124</v>
+        <v>87.05432226458123</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035209</v>
+        <v>9.753166794035153</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.253538246862</v>
+        <v>123.2535382468619</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>18.26213849866841</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>16.75818784313918</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146338</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>185.9226570076761</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
-        <v>283.5630920045443</v>
+        <v>233.2715658672512</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>84.61259060081966</v>
       </c>
       <c r="T14" t="n">
-        <v>148.9055307001815</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>103.1983720868892</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>115.0648329620421</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108359</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1854515484204</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74.95497330698008</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,7 +2011,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>4.665762779849952</v>
       </c>
     </row>
     <row r="20">
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>102.1557845699822</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>20.38427178197995</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,7 +2482,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>141.927332929851</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2524,19 +2524,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>176.1811323375789</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560526</v>
       </c>
     </row>
     <row r="27">
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>61.17550840396349</v>
       </c>
       <c r="D28" t="n">
-        <v>23.10998325717174</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>16.92025364381827</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>107.4021082756241</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695436</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>107.4021082756237</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>192.8170508184374</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576151</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>107.4021082756241</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>114.2821160880069</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,13 +3904,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410136</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4147,7 +4147,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>55.52079624060497</v>
       </c>
       <c r="T46" t="n">
-        <v>107.4021082756237</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1586.913505738324</v>
+        <v>805.7846820932073</v>
       </c>
       <c r="C2" t="n">
-        <v>1217.950988797912</v>
+        <v>436.8221651527955</v>
       </c>
       <c r="D2" t="n">
-        <v>859.685290191162</v>
+        <v>436.8221651527955</v>
       </c>
       <c r="E2" t="n">
-        <v>473.8970375929177</v>
+        <v>436.8221651527955</v>
       </c>
       <c r="F2" t="n">
         <v>62.91113280331017</v>
@@ -4328,25 +4328,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872908</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2230.633898449956</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>1977.052837714136</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.052837714136</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W2" t="n">
-        <v>1977.052837714136</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X2" t="n">
-        <v>1977.052837714136</v>
+        <v>1582.523854133141</v>
       </c>
       <c r="Y2" t="n">
-        <v>1586.913505738324</v>
+        <v>1192.384522157329</v>
       </c>
     </row>
     <row r="3">
@@ -4410,25 +4410,25 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M3" t="n">
-        <v>1140.868925009994</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N3" t="n">
-        <v>1528.154053606939</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783101</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.0244191129133</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>276.0244191129133</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>276.0244191129133</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>276.0244191129133</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>276.0244191129133</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>276.0244191129133</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
         <v>157.1019332386098</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1631.784817730219</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1631.784817730219</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.23396574994</v>
+        <v>1631.784817730219</v>
       </c>
       <c r="U4" t="n">
-        <v>1048.115628253778</v>
+        <v>1631.784817730219</v>
       </c>
       <c r="V4" t="n">
-        <v>793.4311400478913</v>
+        <v>1377.100329524332</v>
       </c>
       <c r="W4" t="n">
-        <v>504.0139700109307</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="X4" t="n">
-        <v>276.0244191129133</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="Y4" t="n">
-        <v>276.0244191129133</v>
+        <v>1087.683159487371</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>373.9157775549433</v>
+        <v>1599.080600298115</v>
       </c>
       <c r="C5" t="n">
-        <v>373.9157775549433</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="D5" t="n">
-        <v>373.9157775549433</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E5" t="n">
-        <v>373.9157775549433</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
-        <v>366.9702768057398</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4595,22 +4595,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2461.533311205462</v>
+        <v>2375.819772338048</v>
       </c>
       <c r="U5" t="n">
-        <v>2207.952250469642</v>
+        <v>2375.819772338048</v>
       </c>
       <c r="V5" t="n">
-        <v>1876.889363126071</v>
+        <v>2375.819772338048</v>
       </c>
       <c r="W5" t="n">
-        <v>1524.120707855957</v>
+        <v>2375.819772338048</v>
       </c>
       <c r="X5" t="n">
-        <v>1150.654949594877</v>
+        <v>2375.819772338048</v>
       </c>
       <c r="Y5" t="n">
-        <v>760.5156176190651</v>
+        <v>1985.680440362237</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
@@ -4647,7 +4647,7 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L6" t="n">
         <v>909.2465818694943</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.2467865680031</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>51.2467865680031</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>51.2467865680031</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>51.2467865680031</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
         <v>51.2467865680031</v>
@@ -4723,7 +4723,7 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4738,10 +4738,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1556.227393153825</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1333.24891234856</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1044.130574852398</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>789.4460866465112</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>500.0289166095505</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>272.0393657115332</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>51.2467865680031</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1114.902695549579</v>
+        <v>1329.838061543121</v>
       </c>
       <c r="C8" t="n">
-        <v>745.9401786091669</v>
+        <v>960.8755446027092</v>
       </c>
       <c r="D8" t="n">
-        <v>745.9401786091669</v>
+        <v>602.6098459959587</v>
       </c>
       <c r="E8" t="n">
-        <v>360.1519260109226</v>
+        <v>216.8215933977145</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>209.876092648511</v>
       </c>
       <c r="G8" t="n">
         <v>51.2467865680031</v>
@@ -4802,25 +4802,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872908</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056584</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.50778578647</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.04202752539</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="Y8" t="n">
-        <v>1114.902695549579</v>
+        <v>1716.437901607243</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>846.3061319081667</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687205</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>685.1760210978775</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C10" t="n">
-        <v>516.2398381699707</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D10" t="n">
-        <v>366.1231987576349</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E10" t="n">
         <v>366.1231987576349</v>
@@ -4960,7 +4960,7 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4975,37 +4975,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="V10" t="n">
-        <v>1605.023786006625</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="W10" t="n">
-        <v>1315.606615969665</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="X10" t="n">
-        <v>1087.617065071647</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y10" t="n">
-        <v>866.8244859281173</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1921.432766619297</v>
+        <v>1654.136765597855</v>
       </c>
       <c r="C11" t="n">
-        <v>1552.470249678886</v>
+        <v>1285.174248657443</v>
       </c>
       <c r="D11" t="n">
-        <v>1194.204551072135</v>
+        <v>926.9085500506931</v>
       </c>
       <c r="E11" t="n">
-        <v>808.4162984738909</v>
+        <v>926.9085500506931</v>
       </c>
       <c r="F11" t="n">
-        <v>808.4162984738909</v>
+        <v>515.9226452610854</v>
       </c>
       <c r="G11" t="n">
-        <v>393.8408528035378</v>
+        <v>101.3471995907324</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907325</v>
+        <v>101.3471995907324</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469194</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386838</v>
+        <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
         <v>704.5155104420323</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301225</v>
+        <v>1232.419981301226</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.48485887811</v>
+        <v>1851.484858878111</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765426</v>
+        <v>2485.180661765427</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687103</v>
+        <v>3070.226377687105</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856284</v>
+        <v>3535.048359856289</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882243</v>
+        <v>3835.937563882247</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234593</v>
+        <v>3925.553311234597</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.553311234593</v>
+        <v>3826.588132455667</v>
       </c>
       <c r="T11" t="n">
-        <v>3721.751200750373</v>
+        <v>3622.786021971447</v>
       </c>
       <c r="U11" t="n">
-        <v>3468.260484382982</v>
+        <v>3369.295305604056</v>
       </c>
       <c r="V11" t="n">
-        <v>3137.197597039411</v>
+        <v>3038.232418260485</v>
       </c>
       <c r="W11" t="n">
-        <v>2784.428941769297</v>
+        <v>2804.341695898868</v>
       </c>
       <c r="X11" t="n">
-        <v>2698.171938659231</v>
+        <v>2430.875937637788</v>
       </c>
       <c r="Y11" t="n">
-        <v>2308.032606683419</v>
+        <v>2040.736605661977</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503047</v>
+        <v>88.36274985503049</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469194</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792129</v>
+        <v>196.8120623792132</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376504</v>
+        <v>477.162132237651</v>
       </c>
       <c r="L12" t="n">
-        <v>480.1171086843891</v>
+        <v>900.4499396649612</v>
       </c>
       <c r="M12" t="n">
-        <v>993.4308829282785</v>
+        <v>1413.763713908851</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279345</v>
+        <v>1955.072021259919</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145095</v>
+        <v>2428.043574125668</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2428.043574125668</v>
       </c>
       <c r="Q12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>431.8546091438735</v>
+        <v>667.6658022123493</v>
       </c>
       <c r="C13" t="n">
-        <v>262.9184262159665</v>
+        <v>667.6658022123493</v>
       </c>
       <c r="D13" t="n">
-        <v>262.9184262159665</v>
+        <v>517.5491628000135</v>
       </c>
       <c r="E13" t="n">
-        <v>262.9184262159665</v>
+        <v>369.6360692176204</v>
       </c>
       <c r="F13" t="n">
-        <v>245.9909637481491</v>
+        <v>222.74612171971</v>
       </c>
       <c r="G13" t="n">
-        <v>78.51106622469187</v>
+        <v>222.74612171971</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469194</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469194</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600401</v>
+        <v>139.0818334600402</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457705</v>
+        <v>368.4550473457709</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888919</v>
+        <v>717.5002252888925</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779221</v>
+        <v>1095.908548779222</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542994</v>
+        <v>1470.753784542995</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715849</v>
+        <v>1800.96773471585</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082521</v>
+        <v>2060.002133082523</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551105</v>
+        <v>2155.909043551106</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014273</v>
+        <v>2155.909043551106</v>
       </c>
       <c r="S13" t="n">
-        <v>1888.302075370156</v>
+        <v>1968.108379906989</v>
       </c>
       <c r="T13" t="n">
-        <v>1667.488017920202</v>
+        <v>1747.294322457035</v>
       </c>
       <c r="U13" t="n">
-        <v>1378.397311360491</v>
+        <v>1458.203615897324</v>
       </c>
       <c r="V13" t="n">
-        <v>1123.712823154604</v>
+        <v>1203.519127691437</v>
       </c>
       <c r="W13" t="n">
-        <v>834.2956531176433</v>
+        <v>914.1019576544759</v>
       </c>
       <c r="X13" t="n">
-        <v>834.2956531176433</v>
+        <v>686.1124067564585</v>
       </c>
       <c r="Y13" t="n">
-        <v>613.5030739741131</v>
+        <v>686.1124067564585</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555042</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614631</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007881</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1153.408479409637</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200289</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>328.4394675364353</v>
       </c>
       <c r="H14" t="n">
         <v>92.81162322608048</v>
@@ -5276,22 +5276,22 @@
         <v>92.81162322608048</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251932</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128754</v>
+        <v>841.9378825128749</v>
       </c>
       <c r="L14" t="n">
         <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333931</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P14" t="n">
         <v>4150.915188021279</v>
@@ -5306,22 +5306,22 @@
         <v>4555.113898070873</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469741</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.39853312617</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856056</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594976</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619164</v>
       </c>
     </row>
     <row r="15">
@@ -5367,10 +5367,10 @@
         <v>1653.719034637164</v>
       </c>
       <c r="N15" t="n">
-        <v>2275.8149980365</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="O15" t="n">
-        <v>2552.77562977024</v>
+        <v>2200.595509637358</v>
       </c>
       <c r="P15" t="n">
         <v>2552.77562977024</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>494.0589900220733</v>
+        <v>964.767307610259</v>
       </c>
       <c r="C16" t="n">
-        <v>389.8182101363266</v>
+        <v>795.8311246823521</v>
       </c>
       <c r="D16" t="n">
-        <v>239.7015707239908</v>
+        <v>645.7144852700162</v>
       </c>
       <c r="E16" t="n">
-        <v>239.7015707239908</v>
+        <v>497.8013916876232</v>
       </c>
       <c r="F16" t="n">
-        <v>92.81162322608048</v>
+        <v>350.9114441897129</v>
       </c>
       <c r="G16" t="n">
-        <v>92.81162322608048</v>
+        <v>234.6843401876501</v>
       </c>
       <c r="H16" t="n">
         <v>92.81162322608048</v>
@@ -5458,28 +5458,28 @@
         <v>2428.375774410167</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368668</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="S16" t="n">
-        <v>2177.346239107598</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="T16" t="n">
-        <v>1957.667456821981</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="U16" t="n">
-        <v>1668.591243136708</v>
+        <v>2139.299560724894</v>
       </c>
       <c r="V16" t="n">
-        <v>1413.906754930821</v>
+        <v>1884.615072519007</v>
       </c>
       <c r="W16" t="n">
-        <v>1124.48958489386</v>
+        <v>1595.197902482046</v>
       </c>
       <c r="X16" t="n">
-        <v>896.5000339958431</v>
+        <v>1367.208351584029</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.7074548523129</v>
+        <v>1146.415772440499</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797182</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5592,22 +5592,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.6905094135296</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>700.7543264856228</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5698,25 +5698,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630042</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5741,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5759,7 +5759,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5835,16 +5835,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>849.3843576263196</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>680.4481746984127</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>530.331535286077</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>382.418441703684</v>
+        <v>197.0043242297713</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>197.0043242297714</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2426.372910063109</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2243.518075718013</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2023.916610740954</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2023.916610740954</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1769.232122535067</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1251.825401600089</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1031.032822456559</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5975,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6066,25 +6066,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>150.8995423128888</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>923.0670414349511</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>1550.665004989558</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>870.3164745246295</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>701.3802915967226</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133953</v>
+        <v>551.2636521843868</v>
       </c>
       <c r="E25" t="n">
         <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>261.012762333092</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L25" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="26">
@@ -6230,13 +6230,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6303,19 +6303,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>762.5477693179088</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>700.7543264856226</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282754</v>
+        <v>550.6376870732869</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6424,10 +6424,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,22 +6540,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133953</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
         <v>407.9027098310023</v>
@@ -6622,7 +6622,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797745</v>
@@ -6634,37 +6634,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="32">
@@ -6692,19 +6692,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188002</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133953</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908934</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
         <v>435.7419440038341</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166296</v>
       </c>
       <c r="T34" t="n">
-        <v>2338.476105524075</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U34" t="n">
-        <v>2049.400878868273</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662386</v>
+        <v>1491.508541327548</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1202.091371290587</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925701</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490399</v>
       </c>
     </row>
     <row r="35">
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7114,31 +7114,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="38">
@@ -7166,13 +7166,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075813</v>
@@ -7199,7 +7199,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7245,10 +7245,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536376</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257307</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133949</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310019</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330918</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270444</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7351,31 +7351,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2049.400878868272</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662385</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727407</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583877</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="41">
@@ -7415,13 +7415,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.0655846733346</v>
+        <v>560.7825789706073</v>
       </c>
       <c r="C43" t="n">
-        <v>411.1294017454277</v>
+        <v>391.8463960427005</v>
       </c>
       <c r="D43" t="n">
-        <v>261.0127623330919</v>
+        <v>241.7297566303648</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138413</v>
+        <v>963.2236229443772</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703112</v>
+        <v>742.4310438008471</v>
       </c>
     </row>
     <row r="44">
@@ -7643,25 +7643,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192457</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111699</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075789</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>707.6725264685176</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>538.7363435406107</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133953</v>
+        <v>388.6197041282751</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458821</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7816,40 +7816,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2390.881471216013</v>
       </c>
       <c r="T46" t="n">
-        <v>2338.476105524075</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U46" t="n">
-        <v>2049.400878868273</v>
+        <v>1882.204779583152</v>
       </c>
       <c r="V46" t="n">
-        <v>1794.716390662386</v>
+        <v>1627.520291377265</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>1110.113570442287</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>889.3209912987573</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>265.0304328515144</v>
       </c>
       <c r="M3" t="n">
-        <v>186.4490126143851</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>129.7511347056858</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>54.95314511566539</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.5687166806772</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.975526991141</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,10 +23318,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>117.6891535794132</v>
       </c>
       <c r="X11" t="n">
-        <v>284.3366675995038</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>161.5698416832689</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>128.6628601797921</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034038</v>
+        <v>89.71507747034032</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146331</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>50.2915261372931</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>50.29152613729271</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>64.04844901173867</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>50.47721991512478</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.80457674440905</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>104.8770068749572</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>213.9188905722448</v>
       </c>
     </row>
     <row r="20">
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>63.36835372228666</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>45.99097492814173</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>4.506629716718152</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,22 +24409,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>110.0033420516652</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24509,7 +24509,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
     </row>
     <row r="27">
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>106.0713126946643</v>
       </c>
       <c r="D28" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>131.6952193743941</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24965,7 +24965,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>9.285372470912988e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>110.0033420516646</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>32.89260457059979</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25442,7 +25442,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219421</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>65.54986409393035</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,13 +25792,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>46.45968844823054</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26035,7 +26035,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26071,10 +26071,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>125.5054897610396</v>
       </c>
       <c r="T46" t="n">
-        <v>110.0033420516646</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>872140.3246336099</v>
+        <v>872140.3246336104</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>949248.1713248098</v>
+        <v>949248.1713248097</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>954496.6942858807</v>
+        <v>954496.6942858805</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>954496.6942858805</v>
+        <v>954496.6942858807</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>954496.6942858807</v>
+        <v>954496.6942858805</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>954496.6942858808</v>
+        <v>954496.6942858805</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>954496.6942858807</v>
+        <v>954496.6942858805</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>954496.6942858807</v>
+        <v>954496.6942858805</v>
       </c>
     </row>
   </sheetData>
@@ -26320,7 +26320,7 @@
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>423807.2415876634</v>
+        <v>423807.2415876637</v>
       </c>
       <c r="F2" t="n">
         <v>461540.8686918677</v>
@@ -26344,13 +26344,13 @@
         <v>464109.2948217537</v>
       </c>
       <c r="M2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="N2" t="n">
-        <v>464109.2948217535</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="O2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="P2" t="n">
         <v>464109.2948217536</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325187.1190357069</v>
+        <v>325187.1190357078</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051372</v>
+        <v>166521.3471051362</v>
       </c>
       <c r="G3" t="n">
         <v>11167.23623557934</v>
@@ -26384,25 +26384,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>84929.59434456819</v>
+        <v>84929.59434456866</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848881</v>
+        <v>43782.40655848861</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224857</v>
+        <v>3023.297977224802</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,25 +26427,25 @@
         <v>6798.303539401317</v>
       </c>
       <c r="F4" t="n">
-        <v>6890.891875482007</v>
+        <v>6890.891875482008</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="H4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707369</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.42449670733</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="M4" t="n">
         <v>6897.424496707359</v>
@@ -26476,7 +26476,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214714</v>
+        <v>86093.72216214723</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26522,46 +26522,46 @@
         <v>-867500.2651754261</v>
       </c>
       <c r="C6" t="n">
-        <v>247251.5184004933</v>
+        <v>247251.5184004934</v>
       </c>
       <c r="D6" t="n">
         <v>247251.5184004933</v>
       </c>
       <c r="E6" t="n">
-        <v>5728.096850408052</v>
+        <v>5518.132606562604</v>
       </c>
       <c r="F6" t="n">
-        <v>187986.5011974101</v>
+        <v>187940.5962018454</v>
       </c>
       <c r="G6" t="n">
-        <v>344922.1042655599</v>
+        <v>344887.3663401242</v>
       </c>
       <c r="H6" t="n">
-        <v>356089.3405011393</v>
+        <v>356054.6025757036</v>
       </c>
       <c r="I6" t="n">
-        <v>356089.3405011391</v>
+        <v>356054.6025757032</v>
       </c>
       <c r="J6" t="n">
-        <v>188484.1626911566</v>
+        <v>188449.4247657211</v>
       </c>
       <c r="K6" t="n">
-        <v>356089.3405011391</v>
+        <v>356054.6025757035</v>
       </c>
       <c r="L6" t="n">
-        <v>356089.3405011392</v>
+        <v>356054.6025757036</v>
       </c>
       <c r="M6" t="n">
-        <v>271159.746156571</v>
+        <v>271125.0082311349</v>
       </c>
       <c r="N6" t="n">
-        <v>312306.9339426503</v>
+        <v>312272.1960172149</v>
       </c>
       <c r="O6" t="n">
-        <v>353066.0425239143</v>
+        <v>353031.3045984787</v>
       </c>
       <c r="P6" t="n">
-        <v>356089.3405011392</v>
+        <v>356054.6025757035</v>
       </c>
     </row>
   </sheetData>
@@ -26738,13 +26738,13 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494556</v>
+        <v>1212.170267494557</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716385</v>
@@ -26796,7 +26796,7 @@
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086483</v>
+        <v>981.3883278086494</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326006</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.105375377017</v>
+        <v>278.1053753770178</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218292</v>
+        <v>145.8707812218283</v>
       </c>
       <c r="G3" t="n">
         <v>9.934451625288375</v>
@@ -26978,13 +26978,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>340.8034957086096</v>
+        <v>340.8034957086106</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173577</v>
+        <v>178.7569625173567</v>
       </c>
       <c r="G4" t="n">
         <v>12.56299777364234</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086096</v>
+        <v>340.8034957086109</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173575</v>
+        <v>178.7569625173567</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364256</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086096</v>
+        <v>340.8034957086106</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173577</v>
+        <v>178.7569625173567</v>
       </c>
       <c r="O4" t="n">
         <v>12.56299777364234</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>36.70412371572093</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>1.722024728331576</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,22 +27537,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>29.51824813956836</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>96.94288309873814</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,16 +27616,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>106.8602279574876</v>
+        <v>22.00382447874799</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27822,19 +27822,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>115.245920710272</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>115.3258519193759</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>112.6076604661751</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>254.5046897532511</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28017,7 +28017,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>120.0619269722708</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>221.0295325966351</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485649</v>
+        <v>4.873046301485653</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508991</v>
+        <v>49.90608543508996</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380257</v>
+        <v>187.8681175380258</v>
       </c>
       <c r="J11" t="n">
-        <v>413.593713530718</v>
+        <v>413.5937135307183</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726057</v>
+        <v>619.8697634726061</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216973</v>
+        <v>769.0032542216978</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857426</v>
+        <v>855.6642913857432</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898388</v>
+        <v>869.5098341898395</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294408</v>
+        <v>821.0534800294414</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615137</v>
+        <v>700.7501494615143</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895588</v>
+        <v>526.2341787895591</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356982</v>
+        <v>306.1064947356984</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951043</v>
+        <v>111.0445425951044</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475344</v>
+        <v>21.33176018475346</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188518</v>
+        <v>0.3898437041188522</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969423</v>
+        <v>2.607309631969425</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191522</v>
+        <v>25.18112197191524</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596479</v>
+        <v>89.76921320596485</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783041</v>
+        <v>246.3335823783043</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202555</v>
+        <v>421.0233277202557</v>
       </c>
       <c r="L12" t="n">
-        <v>141.5392044735496</v>
+        <v>566.117821625642</v>
       </c>
       <c r="M12" t="n">
-        <v>660.632795784533</v>
+        <v>660.6327957845335</v>
       </c>
       <c r="N12" t="n">
-        <v>678.117780114714</v>
+        <v>678.1177801147145</v>
       </c>
       <c r="O12" t="n">
-        <v>620.345287743181</v>
+        <v>620.3452877431814</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205471</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071846</v>
+        <v>272.1495468613067</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697586</v>
+        <v>48.42963285697591</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780657</v>
+        <v>10.50928750780658</v>
       </c>
       <c r="U12" t="n">
-        <v>0.171533528419041</v>
+        <v>0.1715335284190412</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236084</v>
+        <v>2.185880810236086</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737175</v>
+        <v>19.43446756737176</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691791</v>
+        <v>65.73539745691797</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836912</v>
+        <v>154.5417732836913</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619741</v>
+        <v>253.9596068619743</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509176</v>
+        <v>324.9808615509178</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263709</v>
+        <v>342.6467528263712</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973094</v>
+        <v>334.4993788973097</v>
       </c>
       <c r="O13" t="n">
-        <v>308.964316705006</v>
+        <v>308.9643167050062</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761896</v>
+        <v>264.3723481761898</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.037710391678</v>
+        <v>183.0377103916781</v>
       </c>
       <c r="R13" t="n">
-        <v>98.2851498857061</v>
+        <v>98.28514988570618</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929612</v>
+        <v>38.09394102929615</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826904</v>
+        <v>9.339672552826912</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765138</v>
+        <v>0.1192298623765139</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32087,13 +32087,13 @@
         <v>740.13237155043</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927636</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>422.3544583169088</v>
+        <v>694.9967242426203</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>489.7119024980491</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32312,7 +32312,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32324,13 +32324,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>746.4857620875799</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32555,19 +32555,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>545.3845241768652</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>465.7451325200306</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>184.4971006716333</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>491.597732526532</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,10 +33023,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,34 +33251,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,16 +33500,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>400.5469039565762</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34208,31 +34208,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34778,13 +34778,13 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>562.7107934893645</v>
       </c>
       <c r="M3" t="n">
-        <v>553.3803448964255</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34793,13 +34793,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,10 +35030,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>427.431495343536</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35267,10 +35267,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>304.6326742391977</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040317</v>
+        <v>232.547809004032</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276251</v>
+        <v>399.7799124276256</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517101</v>
+        <v>533.2368392517105</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584699</v>
+        <v>625.3180581584705</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932478</v>
+        <v>640.0967705932485</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077541</v>
+        <v>590.9552686077546</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062442</v>
+        <v>469.5171537062448</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151093</v>
+        <v>303.9284889151096</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156604</v>
+        <v>90.52095692156627</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116374</v>
+        <v>119.4959557116376</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458965</v>
+        <v>283.1818887458967</v>
       </c>
       <c r="L12" t="n">
-        <v>2.984824693675424</v>
+        <v>427.5634418457678</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625146</v>
+        <v>518.4987618625153</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313808</v>
+        <v>546.7760680313812</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987365</v>
+        <v>477.749043298737</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062168</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211631</v>
+        <v>132.1677727752852</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701841</v>
+        <v>61.18259316701852</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360913</v>
+        <v>231.6901150360915</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112337</v>
+        <v>352.570886811234</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882115</v>
+        <v>382.2306297882118</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765381</v>
+        <v>378.6315512765383</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190456</v>
+        <v>333.5494446190459</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410831</v>
+        <v>261.6509074410833</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998358</v>
+        <v>96.87566713998372</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35735,13 +35735,13 @@
         <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094304</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>279.7582138724644</v>
+        <v>552.4004797981759</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>355.7374950837189</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35972,13 +35972,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>615.1440500042467</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>406.830144396991</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>57.65947400496659</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>349.0014880820875</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,13 +37151,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>257.9506595121318</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
